--- a/day2/4项目预算表.xlsx
+++ b/day2/4项目预算表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33411\Desktop\项目管理实践\day2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CAACE3-F460-4CA0-8C94-ECFC898A5995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD677A01-85E2-4109-9AC4-850922434DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="预算明细" sheetId="1" r:id="rId1"/>
@@ -384,16 +384,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -412,6 +409,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,16 +723,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507CCE04-E2F8-8EF3-F6D9-C4633BC22828}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" style="11" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="45" customWidth="1"/>
   </cols>
@@ -741,7 +747,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -752,27 +758,27 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="10">
         <v>80000</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -787,10 +793,10 @@
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="10">
         <v>20000</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -805,10 +811,10 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="10">
         <v>15000</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -823,10 +829,10 @@
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="10">
         <v>20000</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -841,10 +847,10 @@
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="10">
         <v>10000</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -859,10 +865,10 @@
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="10">
         <v>8000</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -877,10 +883,10 @@
       <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="10">
         <v>7000</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -891,32 +897,32 @@
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="2">
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="10">
         <v>280000</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -931,10 +937,10 @@
       <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="10">
         <v>90000</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -943,16 +949,16 @@
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="10">
         <v>24000</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -961,16 +967,16 @@
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="10">
         <v>36000</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -979,16 +985,16 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="10">
         <v>15000</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -997,16 +1003,16 @@
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="10">
         <v>15000</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -1015,16 +1021,16 @@
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="10">
         <v>120000</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1033,16 +1039,16 @@
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="10">
         <v>28000</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -1051,16 +1057,16 @@
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="10">
         <v>48000</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -1069,16 +1075,16 @@
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="10">
         <v>20000</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -1087,16 +1093,16 @@
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="10">
         <v>24000</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -1111,10 +1117,10 @@
       <c r="C23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="10">
         <v>70000</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -1125,32 +1131,32 @@
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>82</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="2">
         <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="10">
         <v>60000</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -1165,10 +1171,10 @@
       <c r="C27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="10">
         <v>20000</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -1183,10 +1189,10 @@
       <c r="C28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="10">
         <v>20000</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -1201,10 +1207,10 @@
       <c r="C29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="10">
         <v>10000</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -1219,10 +1225,10 @@
       <c r="C30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="10">
         <v>10000</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -1233,32 +1239,32 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="3"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="3"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
+      <c r="A33" s="4"/>
       <c r="B33" s="2">
         <v>4</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="10">
         <v>80000</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -1273,10 +1279,10 @@
       <c r="C34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="10">
         <v>25000</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -1291,10 +1297,10 @@
       <c r="C35" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="10">
         <v>25000</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F35" s="2" t="s">
@@ -1309,10 +1315,10 @@
       <c r="C36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="10">
         <v>20000</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
@@ -1327,10 +1333,10 @@
       <c r="C37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="10">
         <v>10000</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="2" t="s">
@@ -1341,12 +1347,12 @@
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="4"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="3"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -1355,10 +1361,10 @@
       <c r="C39" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="10">
         <v>500000</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F39" s="2" t="s">
